--- a/files/resultsCross_excel.xlsx
+++ b/files/resultsCross_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madriana/Documents/GitHub/cross/instructions-data/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737C55C2-06CE-1B4B-9ECA-17EB889C2468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914EDD1-BA76-4F49-8232-DD1CF6248C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37340" yWindow="1660" windowWidth="28800" windowHeight="17500" xr2:uid="{0D44F92C-948F-264C-A858-CDBAA690B9E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{0D44F92C-948F-264C-A858-CDBAA690B9E6}"/>
   </bookViews>
   <sheets>
     <sheet name="annual" sheetId="1" r:id="rId1"/>
@@ -318,12 +318,6 @@
     <t>liquids_supply</t>
   </si>
   <si>
-    <t>wood_liquifaction</t>
-  </si>
-  <si>
-    <t>waste_liquifaction</t>
-  </si>
-  <si>
     <t>imports_diesel</t>
   </si>
   <si>
@@ -469,6 +463,12 @@
   </si>
   <si>
     <t>cross202506</t>
+  </si>
+  <si>
+    <t>wood_liquefaction</t>
+  </si>
+  <si>
+    <t>waste_liquefaction</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K197"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,13 +1394,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1420,13 +1420,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1446,13 +1446,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1472,13 +1472,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1498,13 +1498,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1524,13 +1524,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1550,13 +1550,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1576,13 +1576,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1628,13 +1628,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1654,13 +1654,13 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1680,13 +1680,13 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1706,13 +1706,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1732,13 +1732,13 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1758,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1784,13 +1784,13 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1810,13 +1810,13 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1836,13 +1836,13 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1862,13 +1862,13 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1888,13 +1888,13 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1914,13 +1914,13 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1940,13 +1940,13 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1966,13 +1966,13 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1992,13 +1992,13 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -2018,13 +2018,13 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -2044,13 +2044,13 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2070,13 +2070,13 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2096,13 +2096,13 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2122,13 +2122,13 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2174,13 +2174,13 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -2200,13 +2200,13 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -2226,13 +2226,13 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -2252,13 +2252,13 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -2278,13 +2278,13 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -2304,13 +2304,13 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -2330,13 +2330,13 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2356,13 +2356,13 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2382,13 +2382,13 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2408,13 +2408,13 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2434,13 +2434,13 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2460,13 +2460,13 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2486,13 +2486,13 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2512,13 +2512,13 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2540,13 +2540,13 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2566,13 +2566,13 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2592,13 +2592,13 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2618,13 +2618,13 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2644,13 +2644,13 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2670,13 +2670,13 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2696,13 +2696,13 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2722,13 +2722,13 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2748,13 +2748,13 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2774,13 +2774,13 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2800,13 +2800,13 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2826,13 +2826,13 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2852,13 +2852,13 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2880,13 +2880,13 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2906,13 +2906,13 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2932,13 +2932,13 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2958,13 +2958,13 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2984,13 +2984,13 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -3010,13 +3010,13 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -3036,13 +3036,13 @@
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -3062,13 +3062,13 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -3088,13 +3088,13 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -3114,13 +3114,13 @@
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -3140,13 +3140,13 @@
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -3166,13 +3166,13 @@
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3192,13 +3192,13 @@
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3218,13 +3218,13 @@
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3244,13 +3244,13 @@
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3270,13 +3270,13 @@
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3296,13 +3296,13 @@
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3322,13 +3322,13 @@
         <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3348,13 +3348,13 @@
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3374,13 +3374,13 @@
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3400,13 +3400,13 @@
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3426,13 +3426,13 @@
         <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3452,13 +3452,13 @@
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3478,13 +3478,13 @@
         <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3504,13 +3504,13 @@
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3530,13 +3530,13 @@
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3556,13 +3556,13 @@
         <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3582,13 +3582,13 @@
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3608,13 +3608,13 @@
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3634,13 +3634,13 @@
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3660,13 +3660,13 @@
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3686,13 +3686,13 @@
         <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3712,13 +3712,13 @@
         <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3738,13 +3738,13 @@
         <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3764,13 +3764,13 @@
         <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3790,13 +3790,13 @@
         <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3816,13 +3816,13 @@
         <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3842,13 +3842,13 @@
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3868,13 +3868,13 @@
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3894,13 +3894,13 @@
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3920,13 +3920,13 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3946,13 +3946,13 @@
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3972,13 +3972,13 @@
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -3998,13 +3998,13 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4018,19 +4018,19 @@
         <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4044,19 +4044,19 @@
         <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4070,19 +4070,19 @@
         <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4096,19 +4096,19 @@
         <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4119,22 +4119,22 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4145,22 +4145,22 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
         <v>101</v>
       </c>
-      <c r="C108" t="s">
-        <v>103</v>
-      </c>
       <c r="D108" t="s">
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4171,22 +4171,22 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4197,22 +4197,22 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D111" t="s">
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D112" t="s">
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4275,22 +4275,22 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4301,22 +4301,22 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D114" t="s">
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4327,22 +4327,22 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4355,22 +4355,22 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D116" t="s">
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4381,22 +4381,22 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4433,22 +4433,22 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4459,22 +4459,22 @@
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D120" t="s">
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4485,22 +4485,22 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D121" t="s">
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4511,22 +4511,22 @@
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D122" t="s">
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4537,22 +4537,22 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4563,22 +4563,22 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D124" t="s">
         <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4589,22 +4589,22 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4615,22 +4615,22 @@
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
         <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4641,22 +4641,22 @@
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4669,22 +4669,22 @@
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4695,22 +4695,22 @@
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4721,22 +4721,22 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F130" t="s">
         <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4747,22 +4747,22 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4773,22 +4773,22 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -4799,22 +4799,22 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -4851,22 +4851,22 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -4877,22 +4877,22 @@
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -4903,22 +4903,22 @@
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -4929,22 +4929,22 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C138" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -4955,22 +4955,22 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C139" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -4981,22 +4981,22 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C140" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F140" t="s">
         <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5007,22 +5007,22 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
       </c>
       <c r="G141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5033,22 +5033,22 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F142" t="s">
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5059,22 +5059,22 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5085,22 +5085,22 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C144" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D144" t="s">
         <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F144" t="s">
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5111,22 +5111,22 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C145" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5137,22 +5137,22 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
         <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5163,22 +5163,22 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F147" t="s">
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5215,22 +5215,22 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C149" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5241,22 +5241,22 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C150" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D150" t="s">
         <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5267,22 +5267,22 @@
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F151" t="s">
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5293,22 +5293,22 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C152" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5319,22 +5319,22 @@
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C153" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5345,22 +5345,22 @@
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5371,22 +5371,22 @@
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C155" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F155" t="s">
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5397,22 +5397,22 @@
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C156" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5423,22 +5423,22 @@
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C157" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5449,22 +5449,22 @@
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C158" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5475,22 +5475,22 @@
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5501,22 +5501,22 @@
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F160" t="s">
         <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -5527,22 +5527,22 @@
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C161" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C162" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F162" t="s">
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -5579,22 +5579,22 @@
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F163" t="s">
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -5605,22 +5605,22 @@
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F164" t="s">
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -5631,22 +5631,22 @@
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C165" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -5657,22 +5657,22 @@
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C166" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -5683,22 +5683,22 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C167" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -5709,22 +5709,22 @@
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C168" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -5735,22 +5735,22 @@
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
+        <v>123</v>
+      </c>
+      <c r="C169" t="s">
         <v>125</v>
       </c>
-      <c r="C169" t="s">
-        <v>127</v>
-      </c>
       <c r="D169" t="s">
         <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -5761,22 +5761,22 @@
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F170" t="s">
         <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -5813,22 +5813,22 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C172" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -5839,22 +5839,22 @@
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C173" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -5865,22 +5865,22 @@
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C174" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -5891,22 +5891,22 @@
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C175" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C176" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F176" t="s">
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -5943,22 +5943,22 @@
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C177" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -5969,22 +5969,22 @@
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C178" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F178" t="s">
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -5995,22 +5995,22 @@
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F179" t="s">
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6021,22 +6021,22 @@
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C180" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -6047,22 +6047,22 @@
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C181" t="s">
         <v>132</v>
       </c>
-      <c r="C181" t="s">
-        <v>134</v>
-      </c>
       <c r="D181" t="s">
         <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6073,22 +6073,22 @@
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C182" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6099,22 +6099,22 @@
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C183" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6127,22 +6127,22 @@
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C184" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6153,22 +6153,22 @@
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C185" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6179,22 +6179,22 @@
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C186" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6205,22 +6205,22 @@
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C187" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F187" t="s">
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -6231,22 +6231,22 @@
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C188" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -6257,22 +6257,22 @@
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C189" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F189" t="s">
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -6283,22 +6283,22 @@
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C190" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D190" t="s">
         <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C191" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D191" t="s">
         <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
       </c>
       <c r="G191" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -6335,22 +6335,22 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C192" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F192" t="s">
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -6361,22 +6361,22 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D193" t="s">
         <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F193" t="s">
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -6387,22 +6387,22 @@
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C194" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F194" t="s">
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -6413,22 +6413,22 @@
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C195" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D195" t="s">
         <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F195" t="s">
         <v>12</v>
       </c>
       <c r="G195" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -6439,22 +6439,22 @@
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C196" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D196" t="s">
         <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F196" t="s">
         <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H196" t="s">
         <v>13</v>
@@ -6467,22 +6467,22 @@
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C197" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D197" t="s">
         <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F197" t="s">
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -6702,21 +6702,21 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -6725,21 +6725,21 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -6748,21 +6748,21 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -6771,21 +6771,21 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -6794,21 +6794,21 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -6817,21 +6817,21 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -6840,21 +6840,21 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -6863,21 +6863,21 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -6886,21 +6886,21 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -6909,21 +6909,21 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -6932,21 +6932,21 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -6955,21 +6955,21 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -6978,21 +6978,21 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -7001,21 +7001,21 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -7024,21 +7024,21 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -7047,21 +7047,21 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -7070,21 +7070,21 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -7093,21 +7093,21 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -7116,21 +7116,21 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -7139,21 +7139,21 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -7162,21 +7162,21 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -7185,21 +7185,21 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -7208,21 +7208,21 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -7231,21 +7231,21 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -7254,21 +7254,21 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -7277,21 +7277,21 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -7300,21 +7300,21 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
@@ -7323,21 +7323,21 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -7346,21 +7346,21 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -7369,21 +7369,21 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -7392,21 +7392,21 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -7415,21 +7415,21 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -7438,21 +7438,21 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -7461,21 +7461,21 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -7484,21 +7484,21 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -7507,21 +7507,21 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -7530,21 +7530,21 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
@@ -7553,21 +7553,21 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -7576,21 +7576,21 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
@@ -7599,21 +7599,21 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -7622,21 +7622,21 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -7645,21 +7645,21 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -7668,21 +7668,21 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -7691,21 +7691,21 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -7714,21 +7714,21 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -7737,21 +7737,21 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
@@ -7760,21 +7760,21 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>55</v>
@@ -7783,21 +7783,21 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
         <v>54</v>
@@ -7806,21 +7806,21 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -7829,21 +7829,21 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
@@ -7852,21 +7852,21 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
@@ -7875,21 +7875,21 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -7898,21 +7898,21 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -7921,21 +7921,21 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
@@ -7944,16 +7944,16 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/files/resultsCross_excel.xlsx
+++ b/files/resultsCross_excel.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madriana/Documents/GitHub/cross/instructions-data/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914EDD1-BA76-4F49-8232-DD1CF6248C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B063C-47ED-6942-9395-5FDD1A834F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{0D44F92C-948F-264C-A858-CDBAA690B9E6}"/>
+    <workbookView xWindow="35720" yWindow="1680" windowWidth="28800" windowHeight="17500" xr2:uid="{0D44F92C-948F-264C-A858-CDBAA690B9E6}"/>
   </bookViews>
   <sheets>
     <sheet name="annual" sheetId="1" r:id="rId1"/>
     <sheet name="hourly" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">annual!$A$1:$K$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hourly!$A$1:$BE$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">annual!$B$1:$K$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hourly!$B$1:$BE$56</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1339,33 +1339,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0BE329-D43F-FA41-BED0-D9B853C5552E}">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1384,20 +1382,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>144</v>
@@ -1410,20 +1408,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>144</v>
@@ -1436,20 +1434,20 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>144</v>
@@ -1462,20 +1460,20 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>144</v>
@@ -1488,20 +1486,20 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -1514,20 +1512,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>144</v>
@@ -1540,20 +1538,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>144</v>
@@ -1566,20 +1564,20 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>144</v>
@@ -1592,20 +1590,20 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>145</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>144</v>
@@ -1618,20 +1616,20 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -1644,20 +1642,20 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>144</v>
@@ -1670,20 +1668,20 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>144</v>
@@ -1696,20 +1694,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>144</v>
@@ -1722,20 +1720,20 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>144</v>
@@ -1748,20 +1746,20 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
         <v>144</v>
@@ -1773,21 +1771,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
         <v>144</v>
@@ -1799,21 +1797,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>145</v>
-      </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
         <v>144</v>
@@ -1825,21 +1823,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
         <v>144</v>
@@ -1851,21 +1849,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
         <v>144</v>
@@ -1877,21 +1875,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
         <v>144</v>
@@ -1903,21 +1901,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>144</v>
@@ -1929,21 +1927,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
         <v>144</v>
@@ -1955,21 +1953,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>144</v>
@@ -1981,21 +1979,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>144</v>
@@ -2007,21 +2005,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
         <v>144</v>
@@ -2033,21 +2031,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
         <v>144</v>
@@ -2059,21 +2057,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>145</v>
-      </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
         <v>144</v>
@@ -2085,21 +2083,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
         <v>144</v>
@@ -2111,21 +2109,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>144</v>
@@ -2137,21 +2135,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>145</v>
-      </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>144</v>
@@ -2163,21 +2161,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
         <v>144</v>
@@ -2189,21 +2187,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>46</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>144</v>
@@ -2215,21 +2213,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>144</v>
@@ -2241,21 +2239,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
         <v>144</v>
@@ -2267,21 +2265,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>145</v>
-      </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>144</v>
@@ -2293,21 +2291,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>50</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
         <v>144</v>
@@ -2319,21 +2317,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>51</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>145</v>
-      </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
         <v>144</v>
@@ -2345,21 +2343,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>144</v>
@@ -2371,21 +2369,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>145</v>
-      </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
         <v>144</v>
@@ -2397,21 +2395,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>54</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
         <v>144</v>
@@ -2423,21 +2421,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>55</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
         <v>144</v>
@@ -2449,21 +2447,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>56</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>145</v>
-      </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
         <v>144</v>
@@ -2475,21 +2473,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>145</v>
-      </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>144</v>
@@ -2501,21 +2499,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>58</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
-      </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
         <v>144</v>
@@ -2529,21 +2527,21 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>59</v>
       </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
-      </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
         <v>144</v>
@@ -2555,21 +2553,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
         <v>34</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>60</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
-      </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
         <v>144</v>
@@ -2581,21 +2579,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>61</v>
       </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
         <v>144</v>
@@ -2607,21 +2605,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
         <v>34</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>62</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
         <v>144</v>
@@ -2633,21 +2631,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>63</v>
       </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
-      </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>144</v>
@@ -2659,21 +2657,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>64</v>
       </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>145</v>
-      </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
         <v>144</v>
@@ -2685,21 +2683,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>65</v>
       </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
         <v>144</v>
@@ -2711,21 +2709,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>66</v>
       </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>145</v>
-      </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
         <v>144</v>
@@ -2737,21 +2735,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
         <v>34</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>67</v>
       </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>145</v>
-      </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
         <v>144</v>
@@ -2763,21 +2761,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>68</v>
       </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>144</v>
@@ -2789,21 +2787,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>69</v>
       </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>144</v>
@@ -2815,21 +2813,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
         <v>70</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>71</v>
       </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>145</v>
-      </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
         <v>144</v>
@@ -2841,21 +2839,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
         <v>70</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>58</v>
       </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
-      </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
         <v>144</v>
@@ -2869,21 +2867,21 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>72</v>
       </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>145</v>
-      </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
         <v>144</v>
@@ -2895,21 +2893,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
         <v>70</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>73</v>
       </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>145</v>
-      </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
         <v>144</v>
@@ -2921,21 +2919,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>74</v>
       </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
         <v>144</v>
@@ -2947,21 +2945,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
         <v>70</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>75</v>
       </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>145</v>
-      </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
         <v>144</v>
@@ -2973,21 +2971,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
         <v>70</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>76</v>
       </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
-      </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
         <v>144</v>
@@ -2999,21 +2997,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
         <v>70</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>19</v>
       </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>145</v>
-      </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
         <v>144</v>
@@ -3025,21 +3023,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
         <v>70</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>20</v>
       </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>145</v>
-      </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
         <v>144</v>
@@ -3051,21 +3049,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
         <v>70</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>77</v>
       </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>145</v>
-      </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
         <v>144</v>
@@ -3077,21 +3075,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
         <v>70</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>78</v>
       </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>145</v>
-      </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
         <v>144</v>
@@ -3103,21 +3101,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
         <v>70</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>79</v>
       </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
-      </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
         <v>144</v>
@@ -3129,21 +3127,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>31</v>
       </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>145</v>
-      </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
         <v>144</v>
@@ -3155,21 +3153,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
         <v>80</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>81</v>
       </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>145</v>
-      </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
         <v>144</v>
@@ -3181,21 +3179,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>82</v>
       </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>145</v>
-      </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
         <v>144</v>
@@ -3207,21 +3205,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>83</v>
       </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>145</v>
-      </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
         <v>144</v>
@@ -3233,21 +3231,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>84</v>
       </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>145</v>
-      </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
         <v>144</v>
@@ -3259,21 +3257,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
         <v>80</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>85</v>
       </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>145</v>
-      </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
         <v>144</v>
@@ -3285,21 +3283,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>67</v>
       </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>145</v>
-      </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
         <v>144</v>
@@ -3311,21 +3309,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
         <v>86</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>87</v>
       </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>145</v>
-      </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
         <v>144</v>
@@ -3337,21 +3335,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>72</v>
       </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>145</v>
-      </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
         <v>144</v>
@@ -3363,21 +3361,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
         <v>86</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>75</v>
       </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>145</v>
-      </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>144</v>
@@ -3389,21 +3387,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
         <v>86</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>76</v>
       </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>145</v>
-      </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
         <v>144</v>
@@ -3415,21 +3413,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
         <v>86</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>19</v>
       </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>145</v>
-      </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
         <v>144</v>
@@ -3441,21 +3439,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
         <v>86</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>20</v>
       </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>145</v>
-      </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
         <v>144</v>
@@ -3467,21 +3465,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
         <v>86</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>77</v>
       </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>145</v>
-      </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
         <v>144</v>
@@ -3493,21 +3491,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
         <v>86</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>78</v>
       </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>145</v>
-      </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
         <v>144</v>
@@ -3519,21 +3517,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
         <v>86</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>79</v>
       </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>145</v>
-      </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
         <v>144</v>
@@ -3545,21 +3543,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
         <v>86</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>31</v>
       </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>145</v>
-      </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
         <v>144</v>
@@ -3571,21 +3569,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
         <v>88</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>89</v>
       </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
-        <v>145</v>
-      </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
         <v>144</v>
@@ -3597,21 +3595,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>90</v>
       </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>145</v>
-      </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
         <v>144</v>
@@ -3623,21 +3621,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>91</v>
       </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" t="s">
-        <v>145</v>
-      </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
         <v>144</v>
@@ -3649,21 +3647,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>92</v>
       </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" t="s">
-        <v>145</v>
-      </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
         <v>144</v>
@@ -3675,21 +3673,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
         <v>88</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>93</v>
       </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
-        <v>145</v>
-      </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
         <v>144</v>
@@ -3701,21 +3699,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
         <v>88</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>94</v>
       </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>145</v>
-      </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
         <v>144</v>
@@ -3727,21 +3725,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
         <v>95</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>87</v>
       </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" t="s">
-        <v>145</v>
-      </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
         <v>144</v>
@@ -3753,21 +3751,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
         <v>95</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>72</v>
       </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" t="s">
-        <v>145</v>
-      </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
         <v>144</v>
@@ -3779,21 +3777,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>75</v>
       </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
-        <v>145</v>
-      </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
         <v>144</v>
@@ -3805,21 +3803,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
         <v>95</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>76</v>
       </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" t="s">
-        <v>145</v>
-      </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
         <v>144</v>
@@ -3831,21 +3829,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>19</v>
       </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>145</v>
-      </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
         <v>144</v>
@@ -3857,21 +3855,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
         <v>95</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>20</v>
       </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" t="s">
-        <v>145</v>
-      </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
         <v>144</v>
@@ -3883,21 +3881,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
         <v>95</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>77</v>
       </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
-        <v>145</v>
-      </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
         <v>144</v>
@@ -3909,21 +3907,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
         <v>95</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>78</v>
       </c>
-      <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" t="s">
-        <v>145</v>
-      </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
         <v>144</v>
@@ -3935,21 +3933,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
         <v>95</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
         <v>79</v>
       </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>145</v>
-      </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
         <v>144</v>
@@ -3961,21 +3959,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
         <v>95</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>31</v>
       </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>145</v>
-      </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
         <v>144</v>
@@ -3987,21 +3985,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
         <v>96</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>30</v>
       </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
-        <v>145</v>
-      </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
         <v>144</v>
@@ -4013,21 +4011,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
         <v>96</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
         <v>146</v>
       </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>145</v>
-      </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
         <v>144</v>
@@ -4039,21 +4037,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
         <v>96</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>147</v>
       </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" t="s">
-        <v>145</v>
-      </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
         <v>144</v>
@@ -4065,21 +4063,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
         <v>96</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>97</v>
       </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" t="s">
-        <v>145</v>
-      </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
         <v>144</v>
@@ -4091,21 +4089,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
         <v>96</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>98</v>
       </c>
-      <c r="D106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" t="s">
-        <v>145</v>
-      </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
         <v>144</v>
@@ -4117,21 +4115,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
         <v>99</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>100</v>
       </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
-        <v>145</v>
-      </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
         <v>144</v>
@@ -4143,21 +4141,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
         <v>99</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>101</v>
       </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>145</v>
-      </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
         <v>144</v>
@@ -4169,21 +4167,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
         <v>99</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>102</v>
       </c>
-      <c r="D109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>145</v>
-      </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
         <v>144</v>
@@ -4195,21 +4193,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
         <v>99</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>103</v>
       </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" t="s">
-        <v>145</v>
-      </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
         <v>144</v>
@@ -4221,21 +4219,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
         <v>99</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" t="s">
         <v>104</v>
       </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
-        <v>145</v>
-      </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
         <v>144</v>
@@ -4247,21 +4245,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
         <v>99</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>105</v>
       </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
-        <v>145</v>
-      </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
         <v>144</v>
@@ -4273,21 +4271,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
         <v>99</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>106</v>
       </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
-        <v>145</v>
-      </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
         <v>144</v>
@@ -4299,21 +4297,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
         <v>99</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>107</v>
       </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" t="s">
-        <v>145</v>
-      </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
         <v>144</v>
@@ -4325,21 +4323,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
         <v>99</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>108</v>
       </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" t="s">
-        <v>145</v>
-      </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G115" t="s">
         <v>144</v>
@@ -4353,21 +4351,21 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
         <v>99</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>109</v>
       </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
-        <v>145</v>
-      </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
         <v>144</v>
@@ -4379,21 +4377,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
         <v>99</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
         <v>110</v>
       </c>
-      <c r="D117" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" t="s">
-        <v>145</v>
-      </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
         <v>144</v>
@@ -4405,21 +4403,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
         <v>99</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>111</v>
       </c>
-      <c r="D118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" t="s">
-        <v>145</v>
-      </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
         <v>144</v>
@@ -4431,21 +4429,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
         <v>99</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>112</v>
       </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
-        <v>145</v>
-      </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
         <v>144</v>
@@ -4457,21 +4455,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
         <v>99</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>113</v>
       </c>
-      <c r="D120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" t="s">
-        <v>145</v>
-      </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
         <v>144</v>
@@ -4483,21 +4481,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
         <v>99</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>114</v>
       </c>
-      <c r="D121" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" t="s">
-        <v>145</v>
-      </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
         <v>144</v>
@@ -4509,21 +4507,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
         <v>99</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>115</v>
       </c>
-      <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" t="s">
-        <v>145</v>
-      </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
         <v>144</v>
@@ -4535,21 +4533,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
         <v>99</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>116</v>
       </c>
-      <c r="D123" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" t="s">
-        <v>145</v>
-      </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
         <v>144</v>
@@ -4561,21 +4559,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
         <v>99</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" t="s">
         <v>117</v>
       </c>
-      <c r="D124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" t="s">
-        <v>145</v>
-      </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
         <v>144</v>
@@ -4587,21 +4585,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
         <v>99</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>118</v>
       </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>145</v>
-      </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
         <v>144</v>
@@ -4613,21 +4611,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
         <v>99</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>119</v>
       </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
-        <v>145</v>
-      </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
         <v>144</v>
@@ -4639,21 +4637,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
         <v>120</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
         <v>100</v>
       </c>
-      <c r="D127" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" t="s">
-        <v>145</v>
-      </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
         <v>144</v>
@@ -4667,21 +4665,21 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
         <v>120</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>101</v>
       </c>
-      <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" t="s">
-        <v>145</v>
-      </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
         <v>144</v>
@@ -4693,21 +4691,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
         <v>120</v>
       </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
         <v>102</v>
       </c>
-      <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" t="s">
-        <v>145</v>
-      </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
         <v>144</v>
@@ -4719,21 +4717,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
         <v>120</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E130" t="s">
         <v>103</v>
       </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" t="s">
-        <v>145</v>
-      </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
         <v>144</v>
@@ -4745,21 +4743,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
         <v>120</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>104</v>
       </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" t="s">
-        <v>145</v>
-      </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G131" t="s">
         <v>144</v>
@@ -4771,21 +4769,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
         <v>120</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
         <v>105</v>
       </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" t="s">
-        <v>145</v>
-      </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
         <v>144</v>
@@ -4797,21 +4795,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
         <v>120</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>106</v>
       </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" t="s">
-        <v>145</v>
-      </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
         <v>144</v>
@@ -4823,21 +4821,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
         <v>120</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>107</v>
       </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" t="s">
-        <v>145</v>
-      </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
         <v>144</v>
@@ -4849,21 +4847,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
         <v>120</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>108</v>
       </c>
-      <c r="D135" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" t="s">
-        <v>145</v>
-      </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
         <v>144</v>
@@ -4875,21 +4873,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
         <v>120</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>109</v>
       </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" t="s">
-        <v>145</v>
-      </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
         <v>144</v>
@@ -4901,21 +4899,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
         <v>120</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E137" t="s">
         <v>110</v>
       </c>
-      <c r="D137" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
-        <v>145</v>
-      </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
         <v>144</v>
@@ -4927,21 +4925,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
         <v>120</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E138" t="s">
         <v>111</v>
       </c>
-      <c r="D138" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" t="s">
-        <v>145</v>
-      </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
         <v>144</v>
@@ -4953,21 +4951,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
         <v>120</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
         <v>112</v>
       </c>
-      <c r="D139" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" t="s">
-        <v>145</v>
-      </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
         <v>144</v>
@@ -4979,21 +4977,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
         <v>120</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E140" t="s">
         <v>113</v>
       </c>
-      <c r="D140" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" t="s">
-        <v>145</v>
-      </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
         <v>144</v>
@@ -5005,21 +5003,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
         <v>120</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>114</v>
       </c>
-      <c r="D141" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" t="s">
-        <v>145</v>
-      </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
         <v>144</v>
@@ -5031,21 +5029,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
         <v>120</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E142" t="s">
         <v>115</v>
       </c>
-      <c r="D142" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" t="s">
-        <v>145</v>
-      </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
         <v>144</v>
@@ -5057,21 +5055,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
         <v>120</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
         <v>116</v>
       </c>
-      <c r="D143" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s">
-        <v>145</v>
-      </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143" t="s">
         <v>144</v>
@@ -5083,21 +5081,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
         <v>120</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144" t="s">
         <v>117</v>
       </c>
-      <c r="D144" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" t="s">
-        <v>145</v>
-      </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
         <v>144</v>
@@ -5109,21 +5107,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
         <v>120</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>118</v>
       </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s">
-        <v>145</v>
-      </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
         <v>144</v>
@@ -5135,21 +5133,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
         <v>120</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E146" t="s">
         <v>119</v>
       </c>
-      <c r="D146" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" t="s">
-        <v>145</v>
-      </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -5161,21 +5159,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
         <v>120</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>121</v>
       </c>
-      <c r="D147" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" t="s">
-        <v>145</v>
-      </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
         <v>144</v>
@@ -5187,21 +5185,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
         <v>122</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>100</v>
       </c>
-      <c r="D148" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" t="s">
-        <v>145</v>
-      </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
         <v>144</v>
@@ -5213,21 +5211,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
         <v>122</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>101</v>
       </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
-        <v>145</v>
-      </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G149" t="s">
         <v>144</v>
@@ -5239,21 +5237,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
         <v>122</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E150" t="s">
         <v>102</v>
       </c>
-      <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" t="s">
-        <v>145</v>
-      </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
         <v>144</v>
@@ -5265,21 +5263,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
         <v>122</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" t="s">
         <v>103</v>
       </c>
-      <c r="D151" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" t="s">
-        <v>145</v>
-      </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
         <v>144</v>
@@ -5291,21 +5289,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
         <v>122</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>104</v>
       </c>
-      <c r="D152" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" t="s">
-        <v>145</v>
-      </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
         <v>144</v>
@@ -5317,21 +5315,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
         <v>122</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153" t="s">
         <v>105</v>
       </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s">
-        <v>145</v>
-      </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" t="s">
         <v>144</v>
@@ -5343,21 +5341,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>145</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
         <v>122</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E154" t="s">
         <v>106</v>
       </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" t="s">
-        <v>145</v>
-      </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
         <v>144</v>
@@ -5369,21 +5367,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
         <v>122</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" t="s">
         <v>107</v>
       </c>
-      <c r="D155" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" t="s">
-        <v>145</v>
-      </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
         <v>144</v>
@@ -5395,21 +5393,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
         <v>122</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156" t="s">
         <v>108</v>
       </c>
-      <c r="D156" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" t="s">
-        <v>145</v>
-      </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
         <v>144</v>
@@ -5421,21 +5419,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
         <v>122</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>109</v>
       </c>
-      <c r="D157" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" t="s">
-        <v>145</v>
-      </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
         <v>144</v>
@@ -5447,21 +5445,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
         <v>122</v>
       </c>
-      <c r="C158" t="s">
+      <c r="E158" t="s">
         <v>110</v>
       </c>
-      <c r="D158" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" t="s">
-        <v>145</v>
-      </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
         <v>144</v>
@@ -5473,21 +5471,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
         <v>122</v>
       </c>
-      <c r="C159" t="s">
+      <c r="E159" t="s">
         <v>111</v>
       </c>
-      <c r="D159" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" t="s">
-        <v>145</v>
-      </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
         <v>144</v>
@@ -5499,21 +5497,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>145</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
         <v>122</v>
       </c>
-      <c r="C160" t="s">
+      <c r="E160" t="s">
         <v>112</v>
       </c>
-      <c r="D160" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" t="s">
-        <v>145</v>
-      </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
         <v>144</v>
@@ -5525,21 +5523,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
         <v>122</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E161" t="s">
         <v>113</v>
       </c>
-      <c r="D161" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" t="s">
-        <v>145</v>
-      </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G161" t="s">
         <v>144</v>
@@ -5551,21 +5549,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
         <v>122</v>
       </c>
-      <c r="C162" t="s">
+      <c r="E162" t="s">
         <v>114</v>
       </c>
-      <c r="D162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" t="s">
-        <v>145</v>
-      </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G162" t="s">
         <v>144</v>
@@ -5577,21 +5575,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
         <v>122</v>
       </c>
-      <c r="C163" t="s">
+      <c r="E163" t="s">
         <v>115</v>
       </c>
-      <c r="D163" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" t="s">
-        <v>145</v>
-      </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
         <v>144</v>
@@ -5603,21 +5601,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
         <v>122</v>
       </c>
-      <c r="C164" t="s">
+      <c r="E164" t="s">
         <v>116</v>
       </c>
-      <c r="D164" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" t="s">
-        <v>145</v>
-      </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G164" t="s">
         <v>144</v>
@@ -5629,21 +5627,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>145</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
         <v>122</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E165" t="s">
         <v>117</v>
       </c>
-      <c r="D165" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" t="s">
-        <v>145</v>
-      </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G165" t="s">
         <v>144</v>
@@ -5655,21 +5653,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>145</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
         <v>122</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E166" t="s">
         <v>118</v>
       </c>
-      <c r="D166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" t="s">
-        <v>145</v>
-      </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
         <v>144</v>
@@ -5681,21 +5679,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
         <v>122</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E167" t="s">
         <v>119</v>
       </c>
-      <c r="D167" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s">
-        <v>145</v>
-      </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G167" t="s">
         <v>144</v>
@@ -5707,21 +5705,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
         <v>123</v>
       </c>
-      <c r="C168" t="s">
+      <c r="E168" t="s">
         <v>124</v>
       </c>
-      <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" t="s">
-        <v>145</v>
-      </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
         <v>144</v>
@@ -5733,21 +5731,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>145</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
         <v>123</v>
       </c>
-      <c r="C169" t="s">
+      <c r="E169" t="s">
         <v>125</v>
       </c>
-      <c r="D169" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" t="s">
-        <v>145</v>
-      </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
         <v>144</v>
@@ -5759,21 +5757,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
         <v>123</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E170" t="s">
         <v>126</v>
       </c>
-      <c r="D170" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" t="s">
-        <v>145</v>
-      </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
         <v>144</v>
@@ -5785,21 +5783,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
         <v>123</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E171" t="s">
         <v>127</v>
       </c>
-      <c r="D171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" t="s">
-        <v>145</v>
-      </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
         <v>144</v>
@@ -5811,21 +5809,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
         <v>128</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E172" t="s">
         <v>124</v>
       </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>145</v>
-      </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
         <v>144</v>
@@ -5837,21 +5835,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
         <v>128</v>
       </c>
-      <c r="C173" t="s">
+      <c r="E173" t="s">
         <v>125</v>
       </c>
-      <c r="D173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" t="s">
-        <v>145</v>
-      </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
         <v>144</v>
@@ -5863,21 +5861,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>145</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
         <v>128</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E174" t="s">
         <v>126</v>
       </c>
-      <c r="D174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" t="s">
-        <v>145</v>
-      </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G174" t="s">
         <v>144</v>
@@ -5889,21 +5887,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>145</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
         <v>128</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E175" t="s">
         <v>127</v>
       </c>
-      <c r="D175" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" t="s">
-        <v>145</v>
-      </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G175" t="s">
         <v>144</v>
@@ -5915,21 +5913,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>145</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
         <v>129</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" t="s">
         <v>124</v>
       </c>
-      <c r="D176" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" t="s">
-        <v>145</v>
-      </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G176" t="s">
         <v>144</v>
@@ -5941,21 +5939,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
         <v>129</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E177" t="s">
         <v>125</v>
       </c>
-      <c r="D177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" t="s">
-        <v>145</v>
-      </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
         <v>144</v>
@@ -5967,21 +5965,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
         <v>129</v>
       </c>
-      <c r="C178" t="s">
+      <c r="E178" t="s">
         <v>126</v>
       </c>
-      <c r="D178" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" t="s">
-        <v>145</v>
-      </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
         <v>144</v>
@@ -5993,21 +5991,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>145</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
         <v>129</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E179" t="s">
         <v>127</v>
       </c>
-      <c r="D179" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" t="s">
-        <v>145</v>
-      </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G179" t="s">
         <v>144</v>
@@ -6019,21 +6017,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
         <v>130</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E180" t="s">
         <v>131</v>
       </c>
-      <c r="D180" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" t="s">
-        <v>145</v>
-      </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
         <v>144</v>
@@ -6045,21 +6043,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>145</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
         <v>130</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E181" t="s">
         <v>132</v>
       </c>
-      <c r="D181" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" t="s">
-        <v>145</v>
-      </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
         <v>144</v>
@@ -6071,21 +6069,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>145</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
         <v>130</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182" t="s">
         <v>133</v>
       </c>
-      <c r="D182" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" t="s">
-        <v>145</v>
-      </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
         <v>144</v>
@@ -6097,21 +6095,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
         <v>130</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E183" t="s">
         <v>134</v>
       </c>
-      <c r="D183" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" t="s">
-        <v>145</v>
-      </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G183" t="s">
         <v>144</v>
@@ -6125,21 +6123,21 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
         <v>130</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" t="s">
         <v>135</v>
       </c>
-      <c r="D184" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" t="s">
-        <v>145</v>
-      </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
         <v>144</v>
@@ -6151,21 +6149,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>145</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
         <v>130</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" t="s">
         <v>136</v>
       </c>
-      <c r="D185" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" t="s">
-        <v>145</v>
-      </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G185" t="s">
         <v>144</v>
@@ -6177,21 +6175,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
         <v>130</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E186" t="s">
         <v>125</v>
       </c>
-      <c r="D186" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" t="s">
-        <v>145</v>
-      </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
         <v>144</v>
@@ -6203,21 +6201,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>145</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
         <v>130</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" t="s">
         <v>137</v>
       </c>
-      <c r="D187" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" t="s">
-        <v>145</v>
-      </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
         <v>144</v>
@@ -6229,21 +6227,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>145</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
         <v>130</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E188" t="s">
         <v>138</v>
       </c>
-      <c r="D188" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188" t="s">
-        <v>145</v>
-      </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G188" t="s">
         <v>144</v>
@@ -6255,21 +6253,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>145</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
         <v>139</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" t="s">
         <v>131</v>
       </c>
-      <c r="D189" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" t="s">
-        <v>145</v>
-      </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G189" t="s">
         <v>144</v>
@@ -6281,21 +6279,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
         <v>139</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>132</v>
       </c>
-      <c r="D190" t="s">
-        <v>11</v>
-      </c>
-      <c r="E190" t="s">
-        <v>145</v>
-      </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G190" t="s">
         <v>144</v>
@@ -6307,21 +6305,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>145</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
         <v>139</v>
       </c>
-      <c r="C191" t="s">
+      <c r="E191" t="s">
         <v>133</v>
       </c>
-      <c r="D191" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" t="s">
-        <v>145</v>
-      </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191" t="s">
         <v>144</v>
@@ -6333,21 +6331,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>145</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
         <v>139</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>134</v>
       </c>
-      <c r="D192" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" t="s">
-        <v>145</v>
-      </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G192" t="s">
         <v>144</v>
@@ -6359,21 +6357,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>145</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
         <v>139</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
         <v>135</v>
       </c>
-      <c r="D193" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193" t="s">
-        <v>145</v>
-      </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
         <v>144</v>
@@ -6385,21 +6383,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>145</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
         <v>139</v>
       </c>
-      <c r="C194" t="s">
+      <c r="E194" t="s">
         <v>136</v>
       </c>
-      <c r="D194" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" t="s">
-        <v>145</v>
-      </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G194" t="s">
         <v>144</v>
@@ -6411,21 +6409,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>145</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
         <v>139</v>
       </c>
-      <c r="C195" t="s">
+      <c r="E195" t="s">
         <v>125</v>
       </c>
-      <c r="D195" t="s">
-        <v>11</v>
-      </c>
-      <c r="E195" t="s">
-        <v>145</v>
-      </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G195" t="s">
         <v>144</v>
@@ -6437,21 +6435,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>145</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
         <v>139</v>
       </c>
-      <c r="C196" t="s">
+      <c r="E196" t="s">
         <v>137</v>
       </c>
-      <c r="D196" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196" t="s">
-        <v>145</v>
-      </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G196" t="s">
         <v>144</v>
@@ -6465,21 +6463,21 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
         <v>139</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E197" t="s">
         <v>138</v>
       </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" t="s">
-        <v>145</v>
-      </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G197" t="s">
         <v>144</v>
@@ -6500,18 +6498,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1351D336-79CF-634D-817D-59D0012831D3}">
   <dimension ref="A1:BE56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -6520,22 +6516,22 @@
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -6692,20 +6688,20 @@
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>141</v>
@@ -6715,20 +6711,20 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>141</v>
@@ -6738,20 +6734,20 @@
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>141</v>
@@ -6761,20 +6757,20 @@
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>141</v>
@@ -6784,20 +6780,20 @@
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>141</v>
@@ -6807,20 +6803,20 @@
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>141</v>
@@ -6830,20 +6826,20 @@
       </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>140</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>141</v>
@@ -6853,20 +6849,20 @@
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>140</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>141</v>
@@ -6876,20 +6872,20 @@
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>145</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>141</v>
@@ -6899,20 +6895,20 @@
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>141</v>
@@ -6922,20 +6918,20 @@
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
         <v>141</v>
@@ -6945,20 +6941,20 @@
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
         <v>141</v>
@@ -6968,20 +6964,20 @@
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
         <v>141</v>
@@ -6991,20 +6987,20 @@
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
         <v>141</v>
@@ -7014,20 +7010,20 @@
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
         <v>141</v>
@@ -7036,21 +7032,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>140</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
         <v>141</v>
@@ -7059,21 +7055,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>140</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>145</v>
-      </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
         <v>141</v>
@@ -7082,21 +7078,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>140</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
         <v>141</v>
@@ -7105,21 +7101,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>140</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>141</v>
@@ -7128,21 +7124,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>140</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
         <v>141</v>
@@ -7151,21 +7147,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>143</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
         <v>141</v>
@@ -7174,21 +7170,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>141</v>
@@ -7197,21 +7193,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>143</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
         <v>141</v>
@@ -7220,21 +7216,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
         <v>141</v>
@@ -7243,21 +7239,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>143</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
         <v>141</v>
@@ -7266,21 +7262,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
         <v>141</v>
@@ -7289,21 +7285,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>145</v>
-      </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
         <v>141</v>
@@ -7312,21 +7308,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>141</v>
@@ -7335,21 +7331,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>67</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
         <v>141</v>
@@ -7358,21 +7354,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
         <v>143</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>145</v>
-      </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
         <v>141</v>
@@ -7381,21 +7377,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
         <v>141</v>
@@ -7404,21 +7400,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
         <v>141</v>
@@ -7427,21 +7423,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
         <v>141</v>
@@ -7450,21 +7446,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
         <v>143</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
         <v>141</v>
@@ -7473,21 +7469,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>145</v>
-      </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
         <v>141</v>
@@ -7496,21 +7492,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>141</v>
@@ -7519,21 +7515,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
         <v>143</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>145</v>
-      </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
         <v>141</v>
@@ -7542,21 +7538,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
         <v>141</v>
@@ -7565,21 +7561,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
         <v>143</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>35</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>145</v>
-      </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
         <v>141</v>
@@ -7588,21 +7584,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>141</v>
@@ -7611,21 +7607,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
         <v>143</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
         <v>141</v>
@@ -7634,21 +7630,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>57</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>145</v>
-      </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
         <v>141</v>
@@ -7657,21 +7653,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>143</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>69</v>
       </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>145</v>
-      </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
         <v>141</v>
@@ -7680,21 +7676,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
         <v>143</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>63</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
-      </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
         <v>141</v>
@@ -7703,21 +7699,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>64</v>
       </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
-      </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
         <v>141</v>
@@ -7726,21 +7722,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>62</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
-      </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
         <v>141</v>
@@ -7749,21 +7745,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>56</v>
       </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
         <v>141</v>
@@ -7772,21 +7768,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
         <v>141</v>
@@ -7795,21 +7791,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
         <v>143</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>54</v>
       </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
-      </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
         <v>141</v>
@@ -7818,21 +7814,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
         <v>143</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>53</v>
       </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>145</v>
-      </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
         <v>141</v>
@@ -7841,21 +7837,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
         <v>143</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>65</v>
       </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
         <v>141</v>
@@ -7864,21 +7860,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
         <v>143</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>145</v>
-      </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
         <v>141</v>
@@ -7887,21 +7883,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
         <v>143</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>51</v>
       </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>145</v>
-      </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
         <v>141</v>
@@ -7910,21 +7906,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
         <v>143</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>50</v>
       </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
         <v>141</v>
@@ -7933,21 +7929,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
         <v>143</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>49</v>
       </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
         <v>141</v>
